--- a/TP05/documents/Moodle/Form amélioration du processus.xlsx
+++ b/TP05/documents/Moodle/Form amélioration du processus.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>ID</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>CODEREV1 : L'explication de cette phase est très nébuleuse et mélangeante. ( difficile à comprendre )</t>
+  </si>
+  <si>
+    <t>Donner un schéma de type workflow pour expliquer les étapes à suivre. Une description texte ne suffit pas.</t>
+  </si>
+  <si>
+    <t>Fournir une explication claire pour la remise des documents.</t>
+  </si>
+  <si>
+    <t>Bilan : La remise des documents JIRA et Moodle ne sont pas clairs au niveau des formulaires de revues.</t>
+  </si>
+  <si>
+    <t>Bilan : Les calculs de LOC dans le formulaire de données de projet sont très vague ( exemple : taille de la base )</t>
+  </si>
+  <si>
+    <t>Fournir une explication détaillée sur ce qu'est chacune des tailles de cette section. Ceci éviterait les erreurs de calcul.</t>
   </si>
 </sst>
 </file>
@@ -392,8 +410,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B2:B4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -439,19 +457,25 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
@@ -501,19 +525,25 @@
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>3</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
